--- a/单位设计.xlsx
+++ b/单位设计.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClessAltria\Desktop\卡牌RTS系统流程图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\U3D\PMC\-RTS-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13670" windowHeight="8450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="武器属性" sheetId="4" r:id="rId2"/>
-    <sheet name="舰长属性" sheetId="2" r:id="rId3"/>
-    <sheet name="计算公式" sheetId="3" r:id="rId4"/>
+    <sheet name="弹种" sheetId="5" r:id="rId3"/>
+    <sheet name="舰长属性" sheetId="2" r:id="rId4"/>
+    <sheet name="计算公式" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>直行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,18 +216,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡航导弹</t>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,16 +615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -621,7 +650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -650,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -674,302 +703,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2">
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="L17" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -979,21 +933,203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB6B0D6-BF27-4C8D-959F-2A2B6EC300FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1012,116 +1148,116 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
   </sheetData>

--- a/单位设计.xlsx
+++ b/单位设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>直行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,22 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +635,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -715,7 +731,7 @@
     <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -729,34 +745,37 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -766,17 +785,17 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="K2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -784,145 +803,145 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="K3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="J4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="L16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -951,7 +970,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/单位设计.xlsx
+++ b/单位设计.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\U3D\PMC\-RTS-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClessAltria\Desktop\卡牌RTS系统流程图\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13670" windowHeight="8450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13673" windowHeight="8453" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="武器属性" sheetId="4" r:id="rId2"/>
-    <sheet name="弹种" sheetId="5" r:id="rId3"/>
-    <sheet name="舰长属性" sheetId="2" r:id="rId4"/>
-    <sheet name="计算公式" sheetId="3" r:id="rId5"/>
+    <sheet name="导弹类武器属性（物理）" sheetId="4" r:id="rId2"/>
+    <sheet name="发射器类型" sheetId="6" r:id="rId3"/>
+    <sheet name="弹种" sheetId="5" r:id="rId4"/>
+    <sheet name="舰长属性" sheetId="2" r:id="rId5"/>
+    <sheet name="计算公式" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
   <si>
     <t>直行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VP I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VP II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,13 +258,387 @@
   </si>
   <si>
     <t>爆炸效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1跟踪类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2有效距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3破坏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4爆炸效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>强作用力跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱作用力跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万有引力跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神力跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库仑力跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据强作用力性质对目标体进行跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据弱作用力性质对目标体进行跟踪</t>
+  </si>
+  <si>
+    <t>依据万有引力性质对目标体进行跟踪</t>
+  </si>
+  <si>
+    <t>依据库仑力跟性质对目标体进行跟踪</t>
+  </si>
+  <si>
+    <t>依据精神力跟性质对目标体进行跟踪</t>
+  </si>
+  <si>
+    <t>影响命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff和伤害类型（对应护甲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标单位在100以内可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标单位在300以内可以使用</t>
+  </si>
+  <si>
+    <t>目标单位在200以内可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径10的爆炸范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径8的爆炸范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径6的爆炸范围</t>
+  </si>
+  <si>
+    <t>半径4的爆炸范围</t>
+  </si>
+  <si>
+    <t>半径2的爆炸范围</t>
+  </si>
+  <si>
+    <t>极远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标单位在500以内可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标单位在400以内可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5口径大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口径大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体大小和对应的导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>口径5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口径4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口径3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口径2</t>
+  </si>
+  <si>
+    <t>口径1</t>
+  </si>
+  <si>
+    <t>装填速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口径大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占据位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大口径中速连射型导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大口径低速连射型导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大口径中速连射型导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大口径低速连射型导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大口径导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大口径导弹发射器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,16 +998,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -719,19 +1086,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -742,19 +1110,13 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -763,19 +1125,22 @@
         <v>55</v>
       </c>
       <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -783,166 +1148,332 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>ROUNDUP((0.5*(D2^2)+0.3*E2^2),0)</f>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">ROUNDUP((0.5*(D3^2)+0.3*E3^2),0)</f>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1"/>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1"/>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1"/>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1"/>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -953,178 +1484,575 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB6B0D6-BF27-4C8D-959F-2A2B6EC300FA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.9296875" customWidth="1"/>
+    <col min="12" max="12" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1135,20 +2063,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +2256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1167,116 +2264,116 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
     </row>
   </sheetData>

--- a/单位设计.xlsx
+++ b/单位设计.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13673" windowHeight="8453" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13673" windowHeight="8453" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="战舰总属性" sheetId="1" r:id="rId1"/>
     <sheet name="导弹类武器属性（物理）" sheetId="4" r:id="rId2"/>
     <sheet name="发射器类型" sheetId="6" r:id="rId3"/>
-    <sheet name="弹种" sheetId="5" r:id="rId4"/>
-    <sheet name="舰长属性" sheetId="2" r:id="rId5"/>
-    <sheet name="计算公式" sheetId="3" r:id="rId6"/>
+    <sheet name="护甲属性" sheetId="7" r:id="rId4"/>
+    <sheet name="弹种" sheetId="5" r:id="rId5"/>
+    <sheet name="舰长属性" sheetId="2" r:id="rId6"/>
+    <sheet name="计算公式" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
   <si>
     <t>直行速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +633,10 @@
   </si>
   <si>
     <t>大口径导弹发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1007,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1487,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1582,10 +1587,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2062,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -2231,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
